--- a/library/Library_hbrown_11.10.19.xlsx
+++ b/library/Library_hbrown_11.10.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="57">
   <si>
     <t xml:space="preserve">s2cDNADate</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">GAGTTGGT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -136,121 +136,61 @@
     <t xml:space="preserve">CTCAATG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7761</t>
-  </si>
-  <si>
     <t xml:space="preserve">AAATGCA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7762</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACGCGGG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7763</t>
-  </si>
-  <si>
     <t xml:space="preserve">GGAGTCC</t>
   </si>
   <si>
-    <t xml:space="preserve">E7764</t>
-  </si>
-  <si>
     <t xml:space="preserve">CGTCGCT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7765</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCAACTG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7766</t>
-  </si>
-  <si>
     <t xml:space="preserve">TGTTTGT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7767</t>
-  </si>
-  <si>
     <t xml:space="preserve">TACATGG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7768</t>
-  </si>
-  <si>
     <t xml:space="preserve">GTTCTCA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7769</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTGGTGG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7770</t>
-  </si>
-  <si>
     <t xml:space="preserve">TGCCCAT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7771</t>
-  </si>
-  <si>
     <t xml:space="preserve">AAACCTT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7772</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACCATAC</t>
   </si>
   <si>
-    <t xml:space="preserve">E7773</t>
-  </si>
-  <si>
     <t xml:space="preserve">AATACGC</t>
   </si>
   <si>
-    <t xml:space="preserve">E7774</t>
-  </si>
-  <si>
     <t xml:space="preserve">CGCTACA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7775</t>
-  </si>
-  <si>
     <t xml:space="preserve">TGGCATA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7776</t>
-  </si>
-  <si>
     <t xml:space="preserve">TTTTGTC</t>
   </si>
   <si>
-    <t xml:space="preserve">E7777</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACCCACT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7778</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCGGACC</t>
   </si>
   <si>
-    <t xml:space="preserve">E7779</t>
-  </si>
-  <si>
     <t xml:space="preserve">GTACGGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7780</t>
   </si>
 </sst>
 </file>
@@ -261,7 +201,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -295,6 +235,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -340,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,6 +306,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -384,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,10 +427,11 @@
       <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5" t="b">
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -528,10 +480,11 @@
       <c r="J3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5" t="b">
+      <c r="K3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -566,10 +519,11 @@
       <c r="J4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="5" t="b">
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -604,10 +558,11 @@
       <c r="J5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="5" t="b">
+      <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -642,10 +597,11 @@
       <c r="J6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5" t="b">
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -680,10 +636,11 @@
       <c r="J7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="5" t="b">
+      <c r="K7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -718,10 +675,11 @@
       <c r="J8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="5" t="b">
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -756,10 +714,11 @@
       <c r="J9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="5" t="b">
+      <c r="K9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -794,10 +753,11 @@
       <c r="J10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="5" t="b">
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -832,10 +792,11 @@
       <c r="J11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="5" t="b">
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -870,10 +831,11 @@
       <c r="J12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="5" t="b">
+      <c r="K12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -908,10 +870,11 @@
       <c r="J13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="5" t="b">
+      <c r="K13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -946,10 +909,11 @@
       <c r="J14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="5" t="b">
+      <c r="K14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -984,10 +948,11 @@
       <c r="J15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="5" t="b">
+      <c r="K15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1022,10 +987,11 @@
       <c r="J16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="5" t="b">
+      <c r="K16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1060,10 +1026,11 @@
       <c r="J17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="5" t="b">
+      <c r="K17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1098,10 +1065,11 @@
       <c r="J18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="5" t="b">
+      <c r="K18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1136,10 +1104,11 @@
       <c r="J19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="5" t="b">
+      <c r="K19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1174,10 +1143,11 @@
       <c r="J20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="5" t="b">
+      <c r="K20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1212,10 +1182,11 @@
       <c r="J21" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="5" t="b">
+      <c r="K21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1250,10 +1221,11 @@
       <c r="J22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="5" t="b">
+      <c r="K22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1280,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>15</v>
@@ -1288,10 +1260,11 @@
       <c r="J23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="5" t="b">
+      <c r="K23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1291,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>15</v>
@@ -1326,10 +1299,11 @@
       <c r="J24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="5" t="b">
+      <c r="K24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1356,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>15</v>
@@ -1364,10 +1338,11 @@
       <c r="J25" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="5" t="b">
+      <c r="K25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1394,7 +1369,7 @@
         <v>25</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>15</v>
@@ -1402,10 +1377,11 @@
       <c r="J26" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="5" t="b">
+      <c r="K26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1432,7 +1408,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>15</v>
@@ -1440,10 +1416,11 @@
       <c r="J27" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="5" t="b">
+      <c r="K27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1470,7 +1447,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>15</v>
@@ -1478,10 +1455,11 @@
       <c r="J28" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="5" t="b">
+      <c r="K28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1508,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>15</v>
@@ -1516,10 +1494,11 @@
       <c r="J29" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="5" t="b">
+      <c r="K29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1546,7 +1525,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>15</v>
@@ -1554,10 +1533,11 @@
       <c r="J30" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="5" t="b">
+      <c r="K30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1584,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>15</v>
@@ -1592,10 +1572,11 @@
       <c r="J31" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="5" t="b">
+      <c r="K31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1622,7 +1603,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>15</v>
@@ -1630,10 +1611,11 @@
       <c r="J32" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="5" t="b">
+      <c r="K32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1660,7 +1642,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>15</v>
@@ -1668,10 +1650,11 @@
       <c r="J33" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="5" t="b">
+      <c r="K33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1698,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>15</v>
@@ -1706,10 +1689,11 @@
       <c r="J34" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L34" s="5" t="b">
+      <c r="K34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1736,7 +1720,7 @@
         <v>34</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>15</v>
@@ -1744,10 +1728,11 @@
       <c r="J35" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" s="5" t="b">
+      <c r="K35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1774,7 +1759,7 @@
         <v>35</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>15</v>
@@ -1782,10 +1767,11 @@
       <c r="J36" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="5" t="b">
+      <c r="K36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>15</v>
@@ -1820,10 +1806,11 @@
       <c r="J37" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" s="5" t="b">
+      <c r="K37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1850,7 +1837,7 @@
         <v>37</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>15</v>
@@ -1858,10 +1845,11 @@
       <c r="J38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L38" s="5" t="b">
+      <c r="K38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1888,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>15</v>
@@ -1896,10 +1884,11 @@
       <c r="J39" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" s="5" t="b">
+      <c r="K39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1926,7 +1915,7 @@
         <v>39</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>15</v>
@@ -1934,10 +1923,11 @@
       <c r="J40" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L40" s="5" t="b">
+      <c r="K40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1964,7 +1954,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>15</v>
@@ -1972,10 +1962,11 @@
       <c r="J41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" s="5" t="b">
+      <c r="K41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_hbrown_11.10.19.xlsx
+++ b/library/Library_hbrown_11.10.19.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E550DE8-0D66-7A42-8FED-ECE0D2590406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,207 +33,191 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="57">
   <si>
-    <t xml:space="preserve">s2cDNADate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2cDNAPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2cDNASampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index1Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index1Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roboticLibraryPrep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.10.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGAGGTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIC_Index_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGTTGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCTTAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGACAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACCTCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATCGAGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACTCTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGACTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTGGAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGATTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCAGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCATCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAACAAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGGCGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTCCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGGTGGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGTCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTATTTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGTACG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACAGATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTCAATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAATGCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACGCGGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGAGTCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTCGCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCAACTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGTTTGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACATGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTCTCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTGGTGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGCCCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAACCTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCATAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATACGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGCTACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGGCATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTTGTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCCACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGGACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTACGGC</t>
+    <t>s2cDNADate</t>
+  </si>
+  <si>
+    <t>s2cDNAPreparer</t>
+  </si>
+  <si>
+    <t>s2cDNASampleNumber</t>
+  </si>
+  <si>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>index1Name</t>
+  </si>
+  <si>
+    <t>index1Sequence</t>
+  </si>
+  <si>
+    <t>index2Name</t>
+  </si>
+  <si>
+    <t>index2Sequence</t>
+  </si>
+  <si>
+    <t>libraryProtocol</t>
+  </si>
+  <si>
+    <t>roboticLibraryPrep</t>
+  </si>
+  <si>
+    <t>11.10.19</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>TGAGGTT</t>
+  </si>
+  <si>
+    <t>SIC_Index_07</t>
+  </si>
+  <si>
+    <t>GAGTTGGT</t>
+  </si>
+  <si>
+    <t>E7420</t>
+  </si>
+  <si>
+    <t>GCTTAGA</t>
+  </si>
+  <si>
+    <t>ATGACAG</t>
+  </si>
+  <si>
+    <t>CACCTCC</t>
+  </si>
+  <si>
+    <t>ATCGAGC</t>
+  </si>
+  <si>
+    <t>TACTCTA</t>
+  </si>
+  <si>
+    <t>AGACTGA</t>
+  </si>
+  <si>
+    <t>CTTGGAA</t>
+  </si>
+  <si>
+    <t>CCGATTA</t>
+  </si>
+  <si>
+    <t>GGCAGCG</t>
+  </si>
+  <si>
+    <t>CCATCAT</t>
+  </si>
+  <si>
+    <t>TAACAAG</t>
+  </si>
+  <si>
+    <t>GAGGCGT</t>
+  </si>
+  <si>
+    <t>TTTAACT</t>
+  </si>
+  <si>
+    <t>GGTCCTC</t>
+  </si>
+  <si>
+    <t>CGGTGGC</t>
+  </si>
+  <si>
+    <t>ACTGTCG</t>
+  </si>
+  <si>
+    <t>GTATTTG</t>
+  </si>
+  <si>
+    <t>GAGTACG</t>
+  </si>
+  <si>
+    <t>ACAGATA</t>
+  </si>
+  <si>
+    <t>CTCAATG</t>
+  </si>
+  <si>
+    <t>AAATGCA</t>
+  </si>
+  <si>
+    <t>ACGCGGG</t>
+  </si>
+  <si>
+    <t>GGAGTCC</t>
+  </si>
+  <si>
+    <t>CGTCGCT</t>
+  </si>
+  <si>
+    <t>TCAACTG</t>
+  </si>
+  <si>
+    <t>TGTTTGT</t>
+  </si>
+  <si>
+    <t>TACATGG</t>
+  </si>
+  <si>
+    <t>GTTCTCA</t>
+  </si>
+  <si>
+    <t>CTGGTGG</t>
+  </si>
+  <si>
+    <t>TGCCCAT</t>
+  </si>
+  <si>
+    <t>AAACCTT</t>
+  </si>
+  <si>
+    <t>ACCATAC</t>
+  </si>
+  <si>
+    <t>AATACGC</t>
+  </si>
+  <si>
+    <t>CGCTACA</t>
+  </si>
+  <si>
+    <t>TGGCATA</t>
+  </si>
+  <si>
+    <t>TTTTGTC</t>
+  </si>
+  <si>
+    <t>ACCCACT</t>
+  </si>
+  <si>
+    <t>CCGGACC</t>
+  </si>
+  <si>
+    <t>GTACGGC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -241,7 +236,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -254,7 +248,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -262,89 +256,345 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,14 +646,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -412,10 +662,10 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -424,14 +674,14 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -449,14 +699,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -465,10 +715,10 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -477,25 +727,25 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -504,10 +754,10 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -516,25 +766,25 @@
       <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -543,10 +793,10 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -555,25 +805,25 @@
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -582,10 +832,10 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -594,25 +844,25 @@
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -621,10 +871,10 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -633,25 +883,25 @@
       <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -660,10 +910,10 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -672,25 +922,25 @@
       <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -699,10 +949,10 @@
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -711,25 +961,25 @@
       <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -738,10 +988,10 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -750,25 +1000,25 @@
       <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -777,10 +1027,10 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -789,25 +1039,25 @@
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -816,10 +1066,10 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -828,25 +1078,25 @@
       <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -855,10 +1105,10 @@
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -867,25 +1117,25 @@
       <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -894,10 +1144,10 @@
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -906,25 +1156,25 @@
       <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -933,10 +1183,10 @@
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -945,25 +1195,25 @@
       <c r="I15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -972,10 +1222,10 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -984,25 +1234,25 @@
       <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1011,10 +1261,10 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1023,25 +1273,25 @@
       <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1050,10 +1300,10 @@
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1062,25 +1312,25 @@
       <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1089,10 +1339,10 @@
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1101,25 +1351,25 @@
       <c r="I19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1128,10 +1378,10 @@
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -1140,25 +1390,25 @@
       <c r="I20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1167,10 +1417,10 @@
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -1179,25 +1429,25 @@
       <c r="I21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1206,10 +1456,10 @@
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>21</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -1218,25 +1468,25 @@
       <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1245,10 +1495,10 @@
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -1257,25 +1507,25 @@
       <c r="I23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1284,10 +1534,10 @@
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -1296,25 +1546,25 @@
       <c r="I24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1323,10 +1573,10 @@
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -1335,25 +1585,25 @@
       <c r="I25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1362,10 +1612,10 @@
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -1374,25 +1624,25 @@
       <c r="I26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1401,10 +1651,10 @@
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -1413,570 +1663,565 @@
       <c r="I27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="L27" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>27</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>27</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="L28" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="0" t="s">
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="L29" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>29</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>29</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="0" t="s">
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="L30" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>30</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="L31" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>31</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>31</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="0" t="s">
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="L32" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>32</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>32</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="0" t="s">
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="L33" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>33</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34">
         <v>33</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="0" t="s">
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="L34" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>34</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35">
         <v>34</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="0" t="s">
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="L35" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>35</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="0" t="s">
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="L36" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>36</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37">
         <v>36</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="L37" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>37</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38">
         <v>37</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="0" t="s">
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="L38" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>38</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="0" t="s">
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="L39" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>39</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40">
         <v>39</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="0" t="s">
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="L40" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>40</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41">
         <v>40</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="0" t="s">
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L41" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/library/Library_hbrown_11.10.19.xlsx
+++ b/library/Library_hbrown_11.10.19.xlsx
@@ -1,28 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E550DE8-0D66-7A42-8FED-ECE0D2590406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,191 +22,207 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="57">
   <si>
-    <t>s2cDNADate</t>
-  </si>
-  <si>
-    <t>s2cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s2cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>libraryDate</t>
-  </si>
-  <si>
-    <t>libraryPreparer</t>
-  </si>
-  <si>
-    <t>librarySampleNumber</t>
-  </si>
-  <si>
-    <t>index1Name</t>
-  </si>
-  <si>
-    <t>index1Sequence</t>
-  </si>
-  <si>
-    <t>index2Name</t>
-  </si>
-  <si>
-    <t>index2Sequence</t>
-  </si>
-  <si>
-    <t>libraryProtocol</t>
-  </si>
-  <si>
-    <t>roboticLibraryPrep</t>
-  </si>
-  <si>
-    <t>11.10.19</t>
-  </si>
-  <si>
-    <t>H.BROWN</t>
-  </si>
-  <si>
-    <t>TGAGGTT</t>
-  </si>
-  <si>
-    <t>SIC_Index_07</t>
-  </si>
-  <si>
-    <t>GAGTTGGT</t>
-  </si>
-  <si>
-    <t>E7420</t>
-  </si>
-  <si>
-    <t>GCTTAGA</t>
-  </si>
-  <si>
-    <t>ATGACAG</t>
-  </si>
-  <si>
-    <t>CACCTCC</t>
-  </si>
-  <si>
-    <t>ATCGAGC</t>
-  </si>
-  <si>
-    <t>TACTCTA</t>
-  </si>
-  <si>
-    <t>AGACTGA</t>
-  </si>
-  <si>
-    <t>CTTGGAA</t>
-  </si>
-  <si>
-    <t>CCGATTA</t>
-  </si>
-  <si>
-    <t>GGCAGCG</t>
-  </si>
-  <si>
-    <t>CCATCAT</t>
-  </si>
-  <si>
-    <t>TAACAAG</t>
-  </si>
-  <si>
-    <t>GAGGCGT</t>
-  </si>
-  <si>
-    <t>TTTAACT</t>
-  </si>
-  <si>
-    <t>GGTCCTC</t>
-  </si>
-  <si>
-    <t>CGGTGGC</t>
-  </si>
-  <si>
-    <t>ACTGTCG</t>
-  </si>
-  <si>
-    <t>GTATTTG</t>
-  </si>
-  <si>
-    <t>GAGTACG</t>
-  </si>
-  <si>
-    <t>ACAGATA</t>
-  </si>
-  <si>
-    <t>CTCAATG</t>
-  </si>
-  <si>
-    <t>AAATGCA</t>
-  </si>
-  <si>
-    <t>ACGCGGG</t>
-  </si>
-  <si>
-    <t>GGAGTCC</t>
-  </si>
-  <si>
-    <t>CGTCGCT</t>
-  </si>
-  <si>
-    <t>TCAACTG</t>
-  </si>
-  <si>
-    <t>TGTTTGT</t>
-  </si>
-  <si>
-    <t>TACATGG</t>
-  </si>
-  <si>
-    <t>GTTCTCA</t>
-  </si>
-  <si>
-    <t>CTGGTGG</t>
-  </si>
-  <si>
-    <t>TGCCCAT</t>
-  </si>
-  <si>
-    <t>AAACCTT</t>
-  </si>
-  <si>
-    <t>ACCATAC</t>
-  </si>
-  <si>
-    <t>AATACGC</t>
-  </si>
-  <si>
-    <t>CGCTACA</t>
-  </si>
-  <si>
-    <t>TGGCATA</t>
-  </si>
-  <si>
-    <t>TTTTGTC</t>
-  </si>
-  <si>
-    <t>ACCCACT</t>
-  </si>
-  <si>
-    <t>CCGGACC</t>
-  </si>
-  <si>
-    <t>GTACGGC</t>
+    <t xml:space="preserve">s2cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libraryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libraryPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">librarySampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index1Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index1Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index2Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index2Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libraryProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticLibraryPrep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.10.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.BROWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGAGGTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIC_Index_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGTTGGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTTAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGACAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACCTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCGAGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACTCTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGACTGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTGGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGATTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCAGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCATCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAACAAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGGCGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTCCTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGGTGGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTGTCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTATTTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGTACG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAGATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTCAATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAATGCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACGCGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGAGTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTCGCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCAACTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGTTTGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACATGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTCTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTGGTGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGCCCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAACCTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCATAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AATACGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCTACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGGCATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTTGTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCCACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGGACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTACGGC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -236,6 +241,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -248,7 +254,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -256,345 +262,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,14 +396,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -662,10 +412,10 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -674,14 +424,14 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="L2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -699,14 +449,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -715,10 +465,10 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -727,25 +477,25 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -754,10 +504,10 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -766,25 +516,25 @@
       <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -793,10 +543,10 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -805,25 +555,25 @@
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -832,10 +582,10 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -844,25 +594,25 @@
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L6" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -871,10 +621,10 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -883,25 +633,25 @@
       <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -910,10 +660,10 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -922,25 +672,25 @@
       <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -949,10 +699,10 @@
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -961,25 +711,25 @@
       <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -988,10 +738,10 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1000,25 +750,25 @@
       <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L10" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1027,10 +777,10 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -1039,25 +789,25 @@
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L11" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1066,10 +816,10 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -1078,25 +828,25 @@
       <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L12" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1105,10 +855,10 @@
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1117,25 +867,25 @@
       <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L13" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1144,10 +894,10 @@
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1156,25 +906,25 @@
       <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L14" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1183,10 +933,10 @@
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1195,25 +945,25 @@
       <c r="I15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="L15" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1222,10 +972,10 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1234,25 +984,25 @@
       <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L16" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1261,10 +1011,10 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1273,25 +1023,25 @@
       <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L17" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1300,10 +1050,10 @@
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1312,25 +1062,25 @@
       <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L18" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1339,10 +1089,10 @@
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1351,25 +1101,25 @@
       <c r="I19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L19" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1378,10 +1128,10 @@
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -1390,25 +1140,25 @@
       <c r="I20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L20" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1417,10 +1167,10 @@
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -1429,25 +1179,25 @@
       <c r="I21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L21" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1456,10 +1206,10 @@
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -1468,25 +1218,25 @@
       <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L22" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1495,10 +1245,10 @@
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -1507,25 +1257,25 @@
       <c r="I23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L23" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1534,10 +1284,10 @@
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -1546,25 +1296,25 @@
       <c r="I24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L24" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1573,10 +1323,10 @@
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -1585,25 +1335,25 @@
       <c r="I25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L25" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1612,10 +1362,10 @@
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -1624,25 +1374,25 @@
       <c r="I26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L26" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1651,10 +1401,10 @@
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -1663,565 +1413,570 @@
       <c r="I27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="L27" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="I28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="L28" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="I29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="L29" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="I30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="L30" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="I31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="L31" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="I32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="L32" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="L33" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="L34" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="I35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="L35" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="L36" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="L37" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="I38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="L38" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="I39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="L39" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="L40" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="L41" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/library/Library_hbrown_11.10.19.xlsx
+++ b/library/Library_hbrown_11.10.19.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3E9F9-75FA-3A48-B61B-18F69AC9ACAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,209 +31,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">s2cDNADate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2cDNAPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2cDNASampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index1Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index1Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roboticLibraryPrep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.10.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGAGGTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIC_Index_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGTTGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCTTAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGACAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACCTCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATCGAGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACTCTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGACTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTGGAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGATTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCAGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCATCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAACAAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGGCGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTCCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGGTGGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGTCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTATTTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGTACG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACAGATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTCAATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAATGCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACGCGGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGAGTCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTCGCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCAACTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGTTTGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACATGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTCTCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTGGTGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGCCCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAACCTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCATAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATACGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGCTACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGGCATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTTGTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCCACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGGACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTACGGC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="97">
+  <si>
+    <t>s2cDNADate</t>
+  </si>
+  <si>
+    <t>s2cDNAPreparer</t>
+  </si>
+  <si>
+    <t>s2cDNASampleNumber</t>
+  </si>
+  <si>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>index1Name</t>
+  </si>
+  <si>
+    <t>index1Sequence</t>
+  </si>
+  <si>
+    <t>index2Name</t>
+  </si>
+  <si>
+    <t>index2Sequence</t>
+  </si>
+  <si>
+    <t>libraryProtocol</t>
+  </si>
+  <si>
+    <t>roboticLibraryPrep</t>
+  </si>
+  <si>
+    <t>11.10.19</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>TGAGGTT</t>
+  </si>
+  <si>
+    <t>SIC_Index_07</t>
+  </si>
+  <si>
+    <t>GAGTTGGT</t>
+  </si>
+  <si>
+    <t>E7420L</t>
+  </si>
+  <si>
+    <t>GCTTAGA</t>
+  </si>
+  <si>
+    <t>ATGACAG</t>
+  </si>
+  <si>
+    <t>CACCTCC</t>
+  </si>
+  <si>
+    <t>ATCGAGC</t>
+  </si>
+  <si>
+    <t>TACTCTA</t>
+  </si>
+  <si>
+    <t>AGACTGA</t>
+  </si>
+  <si>
+    <t>CTTGGAA</t>
+  </si>
+  <si>
+    <t>CCGATTA</t>
+  </si>
+  <si>
+    <t>GGCAGCG</t>
+  </si>
+  <si>
+    <t>CCATCAT</t>
+  </si>
+  <si>
+    <t>TAACAAG</t>
+  </si>
+  <si>
+    <t>GAGGCGT</t>
+  </si>
+  <si>
+    <t>TTTAACT</t>
+  </si>
+  <si>
+    <t>GGTCCTC</t>
+  </si>
+  <si>
+    <t>CGGTGGC</t>
+  </si>
+  <si>
+    <t>ACTGTCG</t>
+  </si>
+  <si>
+    <t>GTATTTG</t>
+  </si>
+  <si>
+    <t>GAGTACG</t>
+  </si>
+  <si>
+    <t>ACAGATA</t>
+  </si>
+  <si>
+    <t>CTCAATG</t>
+  </si>
+  <si>
+    <t>AAATGCA</t>
+  </si>
+  <si>
+    <t>ACGCGGG</t>
+  </si>
+  <si>
+    <t>GGAGTCC</t>
+  </si>
+  <si>
+    <t>CGTCGCT</t>
+  </si>
+  <si>
+    <t>TCAACTG</t>
+  </si>
+  <si>
+    <t>TGTTTGT</t>
+  </si>
+  <si>
+    <t>TACATGG</t>
+  </si>
+  <si>
+    <t>GTTCTCA</t>
+  </si>
+  <si>
+    <t>CTGGTGG</t>
+  </si>
+  <si>
+    <t>TGCCCAT</t>
+  </si>
+  <si>
+    <t>AAACCTT</t>
+  </si>
+  <si>
+    <t>ACCATAC</t>
+  </si>
+  <si>
+    <t>AATACGC</t>
+  </si>
+  <si>
+    <t>CGCTACA</t>
+  </si>
+  <si>
+    <t>TGGCATA</t>
+  </si>
+  <si>
+    <t>TTTTGTC</t>
+  </si>
+  <si>
+    <t>ACCCACT</t>
+  </si>
+  <si>
+    <t>CCGGACC</t>
+  </si>
+  <si>
+    <t>GTACGGC</t>
+  </si>
+  <si>
+    <t>Index1_1</t>
+  </si>
+  <si>
+    <t>Index1_2</t>
+  </si>
+  <si>
+    <t>Index1_3</t>
+  </si>
+  <si>
+    <t>Index1_4</t>
+  </si>
+  <si>
+    <t>Index1_5</t>
+  </si>
+  <si>
+    <t>Index1_6</t>
+  </si>
+  <si>
+    <t>Index1_7</t>
+  </si>
+  <si>
+    <t>Index1_8</t>
+  </si>
+  <si>
+    <t>Index1_9</t>
+  </si>
+  <si>
+    <t>Index1_10</t>
+  </si>
+  <si>
+    <t>Index1_11</t>
+  </si>
+  <si>
+    <t>Index1_12</t>
+  </si>
+  <si>
+    <t>Index1_13</t>
+  </si>
+  <si>
+    <t>Index1_14</t>
+  </si>
+  <si>
+    <t>Index1_15</t>
+  </si>
+  <si>
+    <t>Index1_16</t>
+  </si>
+  <si>
+    <t>Index1_17</t>
+  </si>
+  <si>
+    <t>Index1_18</t>
+  </si>
+  <si>
+    <t>Index1_19</t>
+  </si>
+  <si>
+    <t>Index1_20</t>
+  </si>
+  <si>
+    <t>Index1_21</t>
+  </si>
+  <si>
+    <t>Index1_22</t>
+  </si>
+  <si>
+    <t>Index1_23</t>
+  </si>
+  <si>
+    <t>Index1_24</t>
+  </si>
+  <si>
+    <t>Index1_25</t>
+  </si>
+  <si>
+    <t>Index1_26</t>
+  </si>
+  <si>
+    <t>Index1_27</t>
+  </si>
+  <si>
+    <t>Index1_28</t>
+  </si>
+  <si>
+    <t>Index1_29</t>
+  </si>
+  <si>
+    <t>Index1_30</t>
+  </si>
+  <si>
+    <t>Index1_31</t>
+  </si>
+  <si>
+    <t>Index1_32</t>
+  </si>
+  <si>
+    <t>Index1_33</t>
+  </si>
+  <si>
+    <t>Index1_34</t>
+  </si>
+  <si>
+    <t>Index1_35</t>
+  </si>
+  <si>
+    <t>Index1_36</t>
+  </si>
+  <si>
+    <t>Index1_37</t>
+  </si>
+  <si>
+    <t>Index1_38</t>
+  </si>
+  <si>
+    <t>Index1_39</t>
+  </si>
+  <si>
+    <t>Index1_40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -241,7 +356,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -254,7 +374,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -262,89 +382,345 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,14 +772,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -412,11 +788,11 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -424,14 +800,14 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -449,14 +825,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -465,11 +841,11 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>2</v>
+      <c r="G3" t="s">
+        <v>58</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>18</v>
@@ -477,25 +853,25 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -504,11 +880,11 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>3</v>
+      <c r="G4" t="s">
+        <v>59</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
@@ -516,25 +892,25 @@
       <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -543,11 +919,11 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>60</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
@@ -555,25 +931,25 @@
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -582,11 +958,11 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>5</v>
+      <c r="G6" t="s">
+        <v>61</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>21</v>
@@ -594,25 +970,25 @@
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -621,11 +997,11 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>6</v>
+      <c r="G7" t="s">
+        <v>62</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>22</v>
@@ -633,25 +1009,25 @@
       <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -660,11 +1036,11 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>63</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>23</v>
@@ -672,25 +1048,25 @@
       <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -699,11 +1075,11 @@
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>8</v>
+      <c r="G9" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>24</v>
@@ -711,25 +1087,25 @@
       <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -738,11 +1114,11 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>9</v>
+      <c r="G10" t="s">
+        <v>65</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>25</v>
@@ -750,25 +1126,25 @@
       <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -777,11 +1153,11 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>10</v>
+      <c r="G11" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -789,25 +1165,25 @@
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -816,11 +1192,11 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>11</v>
+      <c r="G12" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>27</v>
@@ -828,25 +1204,25 @@
       <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -855,11 +1231,11 @@
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>12</v>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>28</v>
@@ -867,25 +1243,25 @@
       <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -894,11 +1270,11 @@
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>13</v>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>29</v>
@@ -906,25 +1282,25 @@
       <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -933,11 +1309,11 @@
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>14</v>
+      <c r="G15" t="s">
+        <v>70</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>30</v>
@@ -945,25 +1321,25 @@
       <c r="I15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -972,11 +1348,11 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>15</v>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>31</v>
@@ -984,25 +1360,25 @@
       <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1011,11 +1387,11 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>16</v>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>32</v>
@@ -1023,25 +1399,25 @@
       <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1050,11 +1426,11 @@
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>17</v>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>33</v>
@@ -1062,25 +1438,25 @@
       <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1089,11 +1465,11 @@
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>18</v>
+      <c r="G19" t="s">
+        <v>74</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>34</v>
@@ -1101,25 +1477,25 @@
       <c r="I19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1128,11 +1504,11 @@
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>19</v>
+      <c r="G20" t="s">
+        <v>75</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>35</v>
@@ -1140,25 +1516,25 @@
       <c r="I20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1167,11 +1543,11 @@
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>20</v>
+      <c r="G21" t="s">
+        <v>76</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>36</v>
@@ -1179,25 +1555,25 @@
       <c r="I21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1206,11 +1582,11 @@
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>21</v>
+      <c r="G22" t="s">
+        <v>77</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>37</v>
@@ -1218,25 +1594,25 @@
       <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1245,11 +1621,11 @@
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>22</v>
+      <c r="G23" t="s">
+        <v>78</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>38</v>
@@ -1257,25 +1633,25 @@
       <c r="I23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1284,11 +1660,11 @@
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>23</v>
+      <c r="G24" t="s">
+        <v>79</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>39</v>
@@ -1296,25 +1672,25 @@
       <c r="I24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1323,11 +1699,11 @@
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>24</v>
+      <c r="G25" t="s">
+        <v>80</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>40</v>
@@ -1335,25 +1711,25 @@
       <c r="I25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1362,11 +1738,11 @@
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <v>25</v>
+      <c r="G26" t="s">
+        <v>81</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>41</v>
@@ -1374,25 +1750,25 @@
       <c r="I26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1401,11 +1777,11 @@
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>26</v>
+      <c r="G27" t="s">
+        <v>82</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>42</v>
@@ -1413,570 +1789,566 @@
       <c r="I27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="L27" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>27</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H28" s="0" t="s">
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="L28" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H29" s="0" t="s">
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="0" t="s">
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="L29" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>29</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="H30" s="0" t="s">
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="0" t="s">
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="L30" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="L31" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>31</v>
       </c>
-      <c r="G32" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="H32" s="0" t="s">
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="0" t="s">
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="L32" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>32</v>
       </c>
-      <c r="G33" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="0" t="s">
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="L33" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>33</v>
       </c>
-      <c r="G34" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="H34" s="0" t="s">
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="0" t="s">
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="L34" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>34</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="H35" s="0" t="s">
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="0" t="s">
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="L35" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="H36" s="0" t="s">
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="0" t="s">
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="L36" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>36</v>
       </c>
-      <c r="G37" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="H37" s="0" t="s">
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="L37" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>37</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="H38" s="0" t="s">
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="0" t="s">
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="L38" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>38</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="H39" s="0" t="s">
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="0" t="s">
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="L39" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>39</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="H40" s="0" t="s">
+      <c r="G40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="0" t="s">
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="L40" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>40</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="H41" s="0" t="s">
+      <c r="G41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="0" t="s">
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L41" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/library/Library_hbrown_11.10.19.xlsx
+++ b/library/Library_hbrown_11.10.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3E9F9-75FA-3A48-B61B-18F69AC9ACAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B4357-62F1-314B-BF1F-3F71439B9187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>TGAGGTT</t>
   </si>
   <si>
-    <t>SIC_Index_07</t>
-  </si>
-  <si>
     <t>GAGTTGGT</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>Index1_40</t>
+  </si>
+  <si>
+    <t>SIC_Index2_07</t>
   </si>
 </sst>
 </file>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,19 +792,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="6" t="b">
         <f>FALSE()</f>
@@ -845,19 +845,19 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="6" t="b">
         <f>FALSE()</f>
@@ -884,19 +884,19 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="6" t="b">
         <f>FALSE()</f>
@@ -923,19 +923,19 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="6" t="b">
         <f>FALSE()</f>
@@ -962,19 +962,19 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="6" t="b">
         <f>FALSE()</f>
@@ -1001,19 +1001,19 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="6" t="b">
         <f>FALSE()</f>
@@ -1040,19 +1040,19 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="6" t="b">
         <f>FALSE()</f>
@@ -1079,19 +1079,19 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="6" t="b">
         <f>FALSE()</f>
@@ -1118,19 +1118,19 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" s="6" t="b">
         <f>FALSE()</f>
@@ -1157,19 +1157,19 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="6" t="b">
         <f>FALSE()</f>
@@ -1196,19 +1196,19 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="6" t="b">
         <f>FALSE()</f>
@@ -1235,19 +1235,19 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="6" t="b">
         <f>FALSE()</f>
@@ -1274,19 +1274,19 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="6" t="b">
         <f>FALSE()</f>
@@ -1313,19 +1313,19 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="6" t="b">
         <f>FALSE()</f>
@@ -1352,19 +1352,19 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="6" t="b">
         <f>FALSE()</f>
@@ -1391,19 +1391,19 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" s="6" t="b">
         <f>FALSE()</f>
@@ -1430,19 +1430,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="6" t="b">
         <f>FALSE()</f>
@@ -1469,19 +1469,19 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="6" t="b">
         <f>FALSE()</f>
@@ -1508,19 +1508,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="6" t="b">
         <f>FALSE()</f>
@@ -1547,19 +1547,19 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="6" t="b">
         <f>FALSE()</f>
@@ -1586,19 +1586,19 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" s="6" t="b">
         <f>FALSE()</f>
@@ -1625,19 +1625,19 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="6" t="b">
         <f>FALSE()</f>
@@ -1664,19 +1664,19 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="6" t="b">
         <f>FALSE()</f>
@@ -1703,19 +1703,19 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="6" t="b">
         <f>FALSE()</f>
@@ -1742,19 +1742,19 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="6" t="b">
         <f>FALSE()</f>
@@ -1781,19 +1781,19 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="6" t="b">
         <f>FALSE()</f>
@@ -1820,19 +1820,19 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" s="6" t="b">
         <f>FALSE()</f>
@@ -1859,19 +1859,19 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="6" t="b">
         <f>FALSE()</f>
@@ -1898,19 +1898,19 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" s="6" t="b">
         <f>FALSE()</f>
@@ -1937,19 +1937,19 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" s="6" t="b">
         <f>FALSE()</f>
@@ -1976,19 +1976,19 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" s="6" t="b">
         <f>FALSE()</f>
@@ -2015,19 +2015,19 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" s="6" t="b">
         <f>FALSE()</f>
@@ -2054,19 +2054,19 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" s="6" t="b">
         <f>FALSE()</f>
@@ -2093,19 +2093,19 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" s="6" t="b">
         <f>FALSE()</f>
@@ -2132,19 +2132,19 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" s="6" t="b">
         <f>FALSE()</f>
@@ -2171,19 +2171,19 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" s="6" t="b">
         <f>FALSE()</f>
@@ -2210,19 +2210,19 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" s="6" t="b">
         <f>FALSE()</f>
@@ -2249,19 +2249,19 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" s="6" t="b">
         <f>FALSE()</f>
@@ -2288,19 +2288,19 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L40" s="6" t="b">
         <f>FALSE()</f>
@@ -2327,19 +2327,19 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L41" s="6" t="b">
         <f>FALSE()</f>

--- a/library/Library_hbrown_11.10.19.xlsx
+++ b/library/Library_hbrown_11.10.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B4357-62F1-314B-BF1F-3F71439B9187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C04AA-396A-A04F-AD8C-450458DE6E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="10" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
